--- a/warehouse_manager/Database/Arrivals.xlsx
+++ b/warehouse_manager/Database/Arrivals.xlsx
@@ -1,78 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\warehouse_manager\Database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD89F0B1-7901-4E0E-9D8B-66F229FA3E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="2688" windowWidth="17064" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5724" yWindow="2688" windowWidth="17064" windowHeight="8112" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arrivals" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrivals" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Quantities</t>
-  </si>
-  <si>
-    <t>Supplier A</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>Arrival Time</t>
-  </si>
-  <si>
-    <t>Dispatch Time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,27 +47,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -366,61 +403,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Arrival Time</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Dispatch Time</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Items</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>50001</v>
       </c>
-      <c r="B2" s="1">
-        <v>45064.958333333336</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45064.958333333336</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
+      <c r="B2" s="4" t="n">
+        <v>45066.5147672658</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>45066.5147672658</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>50002</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>45066.51476728894</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45066.51476730051</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 250), ('Measuring Tape', 400), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>50003</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>45066.51476731847</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>45066.51476731847</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 250), ('Screw Assortment Kit', 600), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50004</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>45066.51476734175</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>45066.51476734175</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50005</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>45066.51476734175</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>45066.51476734175</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[('Cookware Set', 50)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>50006</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>45066.51476737693</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>45066.51476737693</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Measuring Tape', 400), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Hammer', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>50007</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>45066.51476738853</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>45066.51476738853</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>50008</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>45066.51476740007</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>45066.51476740007</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>50009</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>45066.51476742854</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>45066.51476742854</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[('Screwdriver Set', 250), ('Utility Knife', 250), ('Sanding Block', 100), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>50010</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>45066.51476744017</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>45066.51476744017</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>50011</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>45066.51476745226</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>45066.51476745226</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>50012</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>50013</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>50014</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>45066.51476746383</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>50015</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>45066.51476750546</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>45066.51476750546</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Measuring Tape', 400), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>50016</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>45066.5147675286</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>45066.5147675286</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Toolbox', 150), ('Screwdriver Set', 250), ('Screw Assortment Kit', 600), ('Sanding Block', 100), ('Hammer', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>50017</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>45066.51476754567</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>45066.51476754567</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700), ('HDMI Cable', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50018</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>45066.51476755736</v>
+      </c>
+      <c r="C19" s="4" t="n">
+        <v>45066.51476755736</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>50019</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>45066.51476756892</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>45066.51476756892</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>50020</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>45066.51476758048</v>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>45066.51476758048</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>50021</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>45066.51476759259</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>45066.51476759259</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400), ('Wireless Mouse', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>50022</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>45066.51476759259</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>45066.51476759259</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Mascara', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>50023</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>45066.51476761571</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>45066.51476761571</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Yoga Block', 20)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>50024</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>45066.51476761571</v>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>45066.51476761571</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[('Basketball', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>50025</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>45066.51476762737</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>45066.51476762737</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[('Tennis Racket', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>50026</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>45066.51476763887</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>45066.51476763887</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>50027</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>45066.51476763887</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>45066.51476763887</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[('Slow Cooker', 50), ('Coffee Maker', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50028</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>45066.51476765681</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>45066.51476765681</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>50029</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>45066.51476765681</v>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>45066.51476765681</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>50030</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>45066.51476766849</v>
+      </c>
+      <c r="C31" s="4" t="n">
+        <v>45066.51476766849</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50031</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>45066.51476766849</v>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>45066.51476766849</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300), ('Basketball', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>50032</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>45066.5147677037</v>
+      </c>
+      <c r="C33" s="4" t="n">
+        <v>45066.5147677037</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Measuring Tape', 400), ('Hammer', 300), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>50033</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>45066.5147677037</v>
+      </c>
+      <c r="C34" s="4" t="n">
+        <v>45066.5147677037</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>50034</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>45066.51476771531</v>
+      </c>
+      <c r="C35" s="4" t="n">
+        <v>45066.51476771531</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[('Knife Set', 70), ('Mixing Bowl Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>50035</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>45066.51476772637</v>
+      </c>
+      <c r="C36" s="4" t="n">
+        <v>45066.51476772637</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>50036</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>45066.51476773846</v>
+      </c>
+      <c r="C37" s="4" t="n">
+        <v>45066.51476773846</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 250), ('Cutting Board', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>50037</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>45066.51476775004</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <v>45066.51476775004</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[('Cutting Board', 100), ('Mixing Bowl Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>50038</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>45066.51476775004</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <v>45066.51476775004</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>50039</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>45066.51476776158</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>45066.51476776158</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[('Power Drill', 150), ('Paint Roller Kit', 150), ('Paint Brush Set', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>50040</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>45066.51476777321</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>45066.51476777321</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>50041</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>45066.51476777962</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>45066.51476777962</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300), ('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>50042</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>45066.51476777962</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>45066.51476777962</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>50043</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>45066.51476779179</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>45066.51476779179</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>50044</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>45066.51476780335</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>45066.51476780335</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>50045</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>45066.51476780335</v>
+      </c>
+      <c r="C46" s="4" t="n">
+        <v>45066.51476780335</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[('Tennis Racket', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>50046</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>45066.51476781493</v>
+      </c>
+      <c r="C47" s="4" t="n">
+        <v>45066.51476781493</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>50047</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>45066.51476782651</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>45066.51476782651</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>50048</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>45066.51476786124</v>
+      </c>
+      <c r="C49" s="4" t="n">
+        <v>45066.51476786124</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[('Toolbox', 150), ('Screwdriver Set', 250), ('Screw Assortment Kit', 600), ('Utility Knife', 250), ('Hammer', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50049</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>45066.5147678728</v>
+      </c>
+      <c r="C50" s="4" t="n">
+        <v>45066.5147678728</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Toolbox', 150), ('Screwdriver Set', 250), ('Sanding Block', 100), ('Hammer', 300), ('Utility Knife', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50050</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>45066.51476789077</v>
+      </c>
+      <c r="C51" s="4" t="n">
+        <v>45066.51476789077</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400)]</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/warehouse_manager/Database/Arrivals.xlsx
+++ b/warehouse_manager/Database/Arrivals.xlsx
@@ -408,7 +408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>Items</t>
         </is>
       </c>
@@ -443,14 +448,19 @@
         <v>50001</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>45066.5147672658</v>
+        <v>45066.56496534722</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>45066.5147672658</v>
+        <v>45066.56496534722</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('Moisturizing Cream', 300)]</t>
+          <t>Supplier P</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[('Coffee Maker', 100)]</t>
         </is>
       </c>
     </row>
@@ -459,14 +469,19 @@
         <v>50002</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>45066.51476728894</v>
+        <v>45066.56496534722</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>45066.51476730051</v>
+        <v>45066.56496534722</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 250), ('Measuring Tape', 400), ('Screw Assortment Kit', 600)]</t>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 200), ('Bed Sheets', 150)]</t>
         </is>
       </c>
     </row>
@@ -475,14 +490,19 @@
         <v>50003</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>45066.51476731847</v>
+        <v>45066.5649653588</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>45066.51476731847</v>
+        <v>45066.5649653588</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 250), ('Screw Assortment Kit', 600), ('Sanding Block', 100)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
         </is>
       </c>
     </row>
@@ -491,14 +511,19 @@
         <v>50004</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>45066.51476734175</v>
+        <v>45066.56496537037</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>45066.51476734175</v>
+        <v>45066.56496537037</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700)]</t>
         </is>
       </c>
     </row>
@@ -507,14 +532,19 @@
         <v>50005</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>45066.51476734175</v>
+        <v>45066.56496537037</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>45066.51476734175</v>
+        <v>45066.56496537037</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('Cookware Set', 50)]</t>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400), ('Moisturizing Cream', 300)]</t>
         </is>
       </c>
     </row>
@@ -523,14 +553,19 @@
         <v>50006</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>45066.51476737693</v>
+        <v>45066.56496538194</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>45066.51476737693</v>
+        <v>45066.56496538194</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('Level', 250), ('Measuring Tape', 400), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Hammer', 300)]</t>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400), ('Moisturizing Cream', 300)]</t>
         </is>
       </c>
     </row>
@@ -539,14 +574,19 @@
         <v>50007</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>45066.51476738853</v>
+        <v>45066.56496541667</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>45066.51476738853</v>
+        <v>45066.56496541667</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[('Level', 250), ('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400)]</t>
         </is>
       </c>
     </row>
@@ -555,14 +595,19 @@
         <v>50008</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>45066.51476740007</v>
+        <v>45066.56496543981</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>45066.51476740007</v>
+        <v>45066.56496543981</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[('Sanding Block', 100), ('Hammer', 300), ('Measuring Tape', 400), ('Screw Assortment Kit', 600), ('Level', 250), ('Screwdriver Set', 250)]</t>
         </is>
       </c>
     </row>
@@ -571,14 +616,19 @@
         <v>50009</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>45066.51476742854</v>
+        <v>45066.56496545139</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>45066.51476742854</v>
+        <v>45066.56496545139</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('Screwdriver Set', 250), ('Utility Knife', 250), ('Sanding Block', 100), ('Screw Assortment Kit', 600)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
         </is>
       </c>
     </row>
@@ -587,14 +637,19 @@
         <v>50010</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>45066.51476744017</v>
+        <v>45066.56496546296</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>45066.51476744017</v>
+        <v>45066.56496546296</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[('Essential Oil Set', 300)]</t>
         </is>
       </c>
     </row>
@@ -603,12 +658,17 @@
         <v>50011</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>45066.51476745226</v>
+        <v>45066.56496547454</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>45066.51476745226</v>
+        <v>45066.56496547454</v>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>[('Aromatherapy Diffuser', 600)]</t>
         </is>
@@ -619,14 +679,19 @@
         <v>50012</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496547454</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496547454</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Meditation Cushion', 100)]</t>
+          <t>Supplier Q</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[('Steam Iron', 120)]</t>
         </is>
       </c>
     </row>
@@ -635,14 +700,19 @@
         <v>50013</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496548611</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496548611</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 800)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700), ('HDMI Cable', 200)]</t>
         </is>
       </c>
     </row>
@@ -651,14 +721,19 @@
         <v>50014</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496549769</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>45066.51476746383</v>
+        <v>45066.56496549769</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 800)]</t>
+          <t>Supplier Z</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[('Paint Roller Kit', 150), ('Power Drill', 150)]</t>
         </is>
       </c>
     </row>
@@ -667,14 +742,19 @@
         <v>50015</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>45066.51476750546</v>
+        <v>45066.56496549769</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>45066.51476750546</v>
+        <v>45066.56496549769</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('Level', 250), ('Measuring Tape', 400), ('Screw Assortment Kit', 600)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[('Essential Oil Set', 300), ('Aromatherapy Diffuser', 600)]</t>
         </is>
       </c>
     </row>
@@ -683,14 +763,19 @@
         <v>50016</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>45066.5147675286</v>
+        <v>45066.56496550926</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>45066.5147675286</v>
+        <v>45066.56496550926</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[('Level', 250), ('Toolbox', 150), ('Screwdriver Set', 250), ('Screw Assortment Kit', 600), ('Sanding Block', 100), ('Hammer', 300)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700), ('HDMI Cable', 200)]</t>
         </is>
       </c>
     </row>
@@ -699,12 +784,17 @@
         <v>50017</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>45066.51476754567</v>
+        <v>45066.56496550926</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>45066.51476754567</v>
+        <v>45066.56496550926</v>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>[('USB Flash Drive', 700), ('HDMI Cable', 200)]</t>
         </is>
@@ -715,14 +805,19 @@
         <v>50018</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>45066.51476755736</v>
+        <v>45066.56496554398</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>45066.51476755736</v>
+        <v>45066.56496554398</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[('Sanding Block', 100), ('Measuring Tape', 400), ('Utility Knife', 250), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Level', 250)]</t>
         </is>
       </c>
     </row>
@@ -731,14 +826,19 @@
         <v>50019</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>45066.51476756892</v>
+        <v>45066.56496554398</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>45066.51476756892</v>
+        <v>45066.56496554398</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
         </is>
       </c>
     </row>
@@ -747,14 +847,19 @@
         <v>50020</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>45066.51476758048</v>
+        <v>45066.56496557871</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>45066.51476758048</v>
+        <v>45066.56496557871</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Measuring Tape', 400), ('Utility Knife', 250), ('Screw Assortment Kit', 600), ('Level', 250)]</t>
         </is>
       </c>
     </row>
@@ -763,14 +868,19 @@
         <v>50021</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>45066.51476759259</v>
+        <v>45066.56496557871</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>45066.51476759259</v>
+        <v>45066.56496557871</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('Wireless Headphones', 400), ('Wireless Mouse', 200)]</t>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
         </is>
       </c>
     </row>
@@ -779,14 +889,19 @@
         <v>50022</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>45066.51476759259</v>
+        <v>45066.56496560185</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>45066.51476759259</v>
+        <v>45066.56496560185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[('Eyeshadow Palette', 500), ('Mascara', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 400), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Level', 250), ('Screwdriver Set', 250)]</t>
         </is>
       </c>
     </row>
@@ -795,14 +910,19 @@
         <v>50023</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>45066.51476761571</v>
+        <v>45066.56496561343</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>45066.51476761571</v>
+        <v>45066.56496561343</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Yoga Block', 20)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
         </is>
       </c>
     </row>
@@ -811,14 +931,19 @@
         <v>50024</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>45066.51476761571</v>
+        <v>45066.564965625</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>45066.51476761571</v>
+        <v>45066.564965625</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[('Basketball', 200)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600)]</t>
         </is>
       </c>
     </row>
@@ -827,14 +952,19 @@
         <v>50025</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>45066.51476762737</v>
+        <v>45066.56496563657</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>45066.51476762737</v>
+        <v>45066.56496563657</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[('Tennis Racket', 100)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
         </is>
       </c>
     </row>
@@ -843,14 +973,19 @@
         <v>50026</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>45066.51476763887</v>
+        <v>45066.56496564815</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>45066.51476763887</v>
+        <v>45066.56496564815</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[('Lipstick', 800), ('Mascara', 600)]</t>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
         </is>
       </c>
     </row>
@@ -859,14 +994,19 @@
         <v>50027</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>45066.51476763887</v>
+        <v>45066.56496564815</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>45066.51476763887</v>
+        <v>45066.56496564815</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[('Slow Cooker', 50), ('Coffee Maker', 100)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 700)]</t>
         </is>
       </c>
     </row>
@@ -875,14 +1015,19 @@
         <v>50028</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>45066.51476765681</v>
+        <v>45066.56496565972</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>45066.51476765681</v>
+        <v>45066.56496565972</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[('Food Storage Containers', 200)]</t>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
         </is>
       </c>
     </row>
@@ -891,14 +1036,19 @@
         <v>50029</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>45066.51476765681</v>
+        <v>45066.5649656713</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>45066.51476765681</v>
+        <v>45066.5649656713</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('USB Flash Drive', 700)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Eyeshadow Palette', 500)]</t>
         </is>
       </c>
     </row>
@@ -907,14 +1057,19 @@
         <v>50030</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>45066.51476766849</v>
+        <v>45066.5649656713</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>45066.51476766849</v>
+        <v>45066.5649656713</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('Wall Clock', 250)]</t>
+          <t>Supplier P</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[('Slow Cooker', 50), ('Coffee Maker', 100)]</t>
         </is>
       </c>
     </row>
@@ -923,14 +1078,19 @@
         <v>50031</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>45066.51476766849</v>
+        <v>45066.56496569444</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>45066.51476766849</v>
+        <v>45066.56496569444</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('Soccer Ball', 300), ('Basketball', 200)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
         </is>
       </c>
     </row>
@@ -939,14 +1099,19 @@
         <v>50032</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>45066.5147677037</v>
+        <v>45066.56496570602</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>45066.5147677037</v>
+        <v>45066.56496570602</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[('Level', 250), ('Measuring Tape', 400), ('Hammer', 300), ('Screw Assortment Kit', 600)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
         </is>
       </c>
     </row>
@@ -955,14 +1120,19 @@
         <v>50033</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>45066.5147677037</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>45066.5147677037</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[('Facial Cleanser', 400)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Level', 250), ('Measuring Tape', 400)]</t>
         </is>
       </c>
     </row>
@@ -971,14 +1141,19 @@
         <v>50034</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>45066.51476771531</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>45066.51476771531</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[('Knife Set', 70), ('Mixing Bowl Set', 250)]</t>
+          <t>Supplier X</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
         </is>
       </c>
     </row>
@@ -987,14 +1162,19 @@
         <v>50035</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>45066.51476772637</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>45066.51476772637</v>
+        <v>45066.56496572917</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[('LED Bulb', 800)]</t>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400)]</t>
         </is>
       </c>
     </row>
@@ -1003,14 +1183,19 @@
         <v>50036</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>45066.51476773846</v>
+        <v>45066.56496574074</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>45066.51476773846</v>
+        <v>45066.56496574074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[('Mixing Bowl Set', 250), ('Cutting Board', 100)]</t>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300), ('Basketball', 200)]</t>
         </is>
       </c>
     </row>
@@ -1019,14 +1204,19 @@
         <v>50037</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>45066.51476775004</v>
+        <v>45066.56496575232</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>45066.51476775004</v>
+        <v>45066.56496575232</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[('Cutting Board', 100), ('Mixing Bowl Set', 250)]</t>
+          <t>Supplier P</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[('Coffee Maker', 100)]</t>
         </is>
       </c>
     </row>
@@ -1035,14 +1225,19 @@
         <v>50038</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>45066.51476775004</v>
+        <v>45066.56496575232</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>45066.51476775004</v>
+        <v>45066.56496575232</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 900)]</t>
+          <t>Supplier X</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1246,19 @@
         <v>50039</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>45066.51476776158</v>
+        <v>45066.56496577546</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>45066.51476776158</v>
+        <v>45066.56496577546</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[('Power Drill', 150), ('Paint Roller Kit', 150), ('Paint Brush Set', 200)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Measuring Tape', 400)]</t>
         </is>
       </c>
     </row>
@@ -1067,14 +1267,19 @@
         <v>50040</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>45066.51476777321</v>
+        <v>45066.56496578704</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>45066.51476777321</v>
+        <v>45066.56496578704</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 800)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
         </is>
       </c>
     </row>
@@ -1083,14 +1288,19 @@
         <v>50041</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>45066.51476777962</v>
+        <v>45066.56496583334</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>45066.51476777962</v>
+        <v>45066.56496583334</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[('Moisturizing Cream', 300), ('Facial Cleanser', 400)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[('Sanding Block', 100), ('Measuring Tape', 400), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Level', 250), ('Screwdriver Set', 250)]</t>
         </is>
       </c>
     </row>
@@ -1099,14 +1309,19 @@
         <v>50042</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>45066.51476777962</v>
+        <v>45066.56496586806</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>45066.51476777962</v>
+        <v>45066.56496586806</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 800)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Toolbox', 150), ('Screwdriver Set', 250), ('Measuring Tape', 400)]</t>
         </is>
       </c>
     </row>
@@ -1115,14 +1330,19 @@
         <v>50043</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>45066.51476779179</v>
+        <v>45066.56496587963</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>45066.51476779179</v>
+        <v>45066.56496587963</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100)]</t>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100), ('Yoga Mat', 300)]</t>
         </is>
       </c>
     </row>
@@ -1131,14 +1351,19 @@
         <v>50044</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>45066.51476780335</v>
+        <v>45066.5649658912</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>45066.51476780335</v>
+        <v>45066.5649658912</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[('Soccer Ball', 300)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[('Essential Oil Set', 300), ('Aromatherapy Diffuser', 600)]</t>
         </is>
       </c>
     </row>
@@ -1147,14 +1372,19 @@
         <v>50045</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>45066.51476780335</v>
+        <v>45066.56496592593</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>45066.51476780335</v>
+        <v>45066.56496592593</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[('Tennis Racket', 100)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Level', 250), ('Screwdriver Set', 250)]</t>
         </is>
       </c>
     </row>
@@ -1163,14 +1393,19 @@
         <v>50046</v>
       </c>
       <c r="B47" s="4" t="n">
-        <v>45066.51476781493</v>
+        <v>45066.56496592593</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>45066.51476781493</v>
+        <v>45066.56496592593</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 600)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
         </is>
       </c>
     </row>
@@ -1179,14 +1414,19 @@
         <v>50047</v>
       </c>
       <c r="B48" s="4" t="n">
-        <v>45066.51476782651</v>
+        <v>45066.5649659375</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>45066.51476782651</v>
+        <v>45066.5649659375</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Meditation Cushion', 100)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800), ('Floor Lamp', 50)]</t>
         </is>
       </c>
     </row>
@@ -1195,14 +1435,19 @@
         <v>50048</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>45066.51476786124</v>
+        <v>45066.56496596065</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>45066.51476786124</v>
+        <v>45066.56496596065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[('Toolbox', 150), ('Screwdriver Set', 250), ('Screw Assortment Kit', 600), ('Utility Knife', 250), ('Hammer', 300)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
         </is>
       </c>
     </row>
@@ -1211,14 +1456,19 @@
         <v>50049</v>
       </c>
       <c r="B50" s="4" t="n">
-        <v>45066.5147678728</v>
+        <v>45066.56496597223</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>45066.5147678728</v>
+        <v>45066.56496597223</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[('Level', 250), ('Toolbox', 150), ('Screwdriver Set', 250), ('Sanding Block', 100), ('Hammer', 300), ('Utility Knife', 250)]</t>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400), ('Bluetooth Speaker', 300)]</t>
         </is>
       </c>
     </row>
@@ -1227,14 +1477,3169 @@
         <v>50050</v>
       </c>
       <c r="B51" s="4" t="n">
-        <v>45066.51476789077</v>
+        <v>45066.56496598379</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>45066.51476789077</v>
+        <v>45066.56496598379</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400), ('Moisturizing Cream', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50051</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>45066.56514618055</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>45066.56514618055</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Supplier S</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[('Cutting Board', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50052</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>45066.56514619213</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <v>45066.56514619213</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>50053</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>45066.56514620371</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <v>45066.56514620371</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>50054</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>45066.56514620371</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <v>45066.56514620371</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Supplier X</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>50055</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>45066.56514621527</v>
+      </c>
+      <c r="C56" s="4" t="n">
+        <v>45066.56514621527</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[('Basketball', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50056</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>45066.56514622685</v>
+      </c>
+      <c r="C57" s="4" t="n">
+        <v>45066.56514622685</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>50057</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>45066.56514623843</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>45066.56514623843</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[('HDMI Cable', 200), ('USB Flash Drive', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>50058</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>45066.56514625</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>45066.56514625</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50059</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>45066.56514626157</v>
+      </c>
+      <c r="C60" s="4" t="n">
+        <v>45066.56514626157</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Supplier P</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[('Slow Cooker', 50), ('Coffee Maker', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>50060</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>45066.56514626157</v>
+      </c>
+      <c r="C61" s="4" t="n">
+        <v>45066.56514626157</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Supplier X</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>50061</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>45066.56514627315</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <v>45066.56514627315</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>50062</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>45066.56514628472</v>
+      </c>
+      <c r="C63" s="4" t="n">
+        <v>45066.56514628472</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[('Yoga Mat', 300), ('Resistance Bands', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>50063</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>45066.56514631944</v>
+      </c>
+      <c r="C64" s="4" t="n">
+        <v>45066.56514631944</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 400), ('Level', 250), ('Utility Knife', 250), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>50064</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>45066.56514633102</v>
+      </c>
+      <c r="C65" s="4" t="n">
+        <v>45066.56514633102</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>50065</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>45066.56514634259</v>
+      </c>
+      <c r="C66" s="4" t="n">
+        <v>45066.56514634259</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>50066</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>45066.56514634259</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>45066.56514634259</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>50067</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>45066.56514635417</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>45066.56514635417</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>50068</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>45066.56514635417</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>45066.56514635417</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>50069</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>45066.56514636574</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>45066.56514636574</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>50070</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>45066.56514638889</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>45066.56514638889</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 250), ('Screwdriver Set', 250), ('Sanding Block', 100), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>50071</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>45066.56514640046</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>45066.56514640046</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[('Yoga Mat', 300), ('Resistance Bands', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>50072</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>45066.56514640046</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>45066.56514640046</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Supplier U</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>50073</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>45066.56514641204</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <v>45066.56514641204</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>50074</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>45066.56514642361</v>
+      </c>
+      <c r="C75" s="4" t="n">
+        <v>45066.56514642361</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Supplier S</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 250), ('Knife Set', 70)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>50075</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>45066.56514643518</v>
+      </c>
+      <c r="C76" s="4" t="n">
+        <v>45066.56514643518</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 200), ('Bed Sheets', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>50076</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>45066.56514644676</v>
+      </c>
+      <c r="C77" s="4" t="n">
+        <v>45066.56514644676</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>50077</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>45066.5651464699</v>
+      </c>
+      <c r="C78" s="4" t="n">
+        <v>45066.5651464699</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 400), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>50078</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>45066.56514649306</v>
+      </c>
+      <c r="C79" s="4" t="n">
+        <v>45066.56514649306</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 250), ('Level', 250), ('Screw Assortment Kit', 600), ('Measuring Tape', 400), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>50079</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>45066.56514650463</v>
+      </c>
+      <c r="C80" s="4" t="n">
+        <v>45066.56514650463</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>50080</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>45066.56514653935</v>
+      </c>
+      <c r="C81" s="4" t="n">
+        <v>45066.56514653935</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Screw Assortment Kit', 600), ('Measuring Tape', 400), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>50081</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>45066.5651465625</v>
+      </c>
+      <c r="C82" s="4" t="n">
+        <v>45066.5651465625</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Level', 250), ('Screw Assortment Kit', 600), ('Measuring Tape', 400), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50082</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>45066.56514657407</v>
+      </c>
+      <c r="C83" s="4" t="n">
+        <v>45066.56514657407</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>50083</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>45066.56514657407</v>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>45066.56514657407</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>50084</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>45066.56514659722</v>
+      </c>
+      <c r="C85" s="4" t="n">
+        <v>45066.56514659722</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[('Utility Knife', 250), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Level', 250), ('Measuring Tape', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>50085</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>45066.56514660879</v>
+      </c>
+      <c r="C86" s="4" t="n">
+        <v>45066.56514660879</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>50086</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>45066.56514662037</v>
+      </c>
+      <c r="C87" s="4" t="n">
+        <v>45066.56514662037</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Supplier S</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>50087</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>45066.56514662037</v>
+      </c>
+      <c r="C88" s="4" t="n">
+        <v>45066.56514662037</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>50088</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>45066.56514663195</v>
+      </c>
+      <c r="C89" s="4" t="n">
+        <v>45066.56514663195</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>50089</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>45066.56514663195</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>45066.56514663195</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>50090</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>45066.56514664352</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>45066.56514664352</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Supplier N</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[('Pillow', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>50091</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>45066.56514665509</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>45066.56514665509</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 200), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>50092</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>45066.56514668981</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>45066.56514668981</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Level', 250), ('Screw Assortment Kit', 600), ('Measuring Tape', 400), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>50093</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>45066.56514671296</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>45066.56514671296</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Toolbox', 150), ('Screw Assortment Kit', 600), ('Measuring Tape', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>50094</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>45066.56514672453</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>45066.56514672453</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[('Essential Oil Set', 300), ('Aromatherapy Diffuser', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>50095</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>45066.56514674769</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>45066.56514674769</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Toolbox', 150), ('Level', 250), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>50096</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>45066.56514675926</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>45066.56514675926</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>50097</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>45066.56514677083</v>
+      </c>
+      <c r="C98" s="4" t="n">
+        <v>45066.56514677083</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>50098</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>45066.56514677083</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>45066.56514677083</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Supplier U</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>50099</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>45066.56514678241</v>
+      </c>
+      <c r="C100" s="4" t="n">
+        <v>45066.56514678241</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[('Bath Towels', 200), ('Bed Sheets', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>50100</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>45066.56514680556</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>45066.56514680556</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Utility Knife', 250), ('Level', 250), ('Screw Assortment Kit', 600), ('Measuring Tape', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>50101</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>45066.56535567129</v>
+      </c>
+      <c r="C102" s="4" t="n">
+        <v>45066.56535567129</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300), ('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>50102</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>45066.56535569445</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>45066.56535569445</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>50103</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>45066.56535571759</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>45066.56535571759</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Sanding Block', 100), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>50104</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>45066.56535572917</v>
+      </c>
+      <c r="C105" s="4" t="n">
+        <v>45066.56535572917</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>50105</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>45066.56535574074</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>45066.56535574074</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>50106</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>45066.56535575232</v>
+      </c>
+      <c r="C107" s="4" t="n">
+        <v>45066.56535575232</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[('Yoga Block', 20), ('Yoga Mat', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>50107</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>45066.56535576389</v>
+      </c>
+      <c r="C108" s="4" t="n">
+        <v>45066.56535576389</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Supplier Z</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[('Paint Brush Set', 200), ('Power Drill', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>50108</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>45066.56535577546</v>
+      </c>
+      <c r="C109" s="4" t="n">
+        <v>45066.56535577546</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>50109</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>45066.56535578704</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>45066.56535578704</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100), ('Yoga Block', 20)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>50110</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>45066.56535579861</v>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>45066.56535579861</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>50111</v>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>45066.56535579861</v>
+      </c>
+      <c r="C112" s="4" t="n">
+        <v>45066.56535579861</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600), ('Essential Oil Set', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>50112</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>45066.56535581018</v>
+      </c>
+      <c r="C113" s="4" t="n">
+        <v>45066.56535581018</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Supplier I</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[('Tennis Racket', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>50113</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>45066.56535581018</v>
+      </c>
+      <c r="C114" s="4" t="n">
+        <v>45066.56535581018</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>50114</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>45066.56535582176</v>
+      </c>
+      <c r="C115" s="4" t="n">
+        <v>45066.56535582176</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Supplier X</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[('Food Storage Containers', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>50115</v>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>45066.56535582176</v>
+      </c>
+      <c r="C116" s="4" t="n">
+        <v>45066.56535582176</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Supplier Q</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[('Steam Iron', 120)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>50116</v>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>45066.56535585648</v>
+      </c>
+      <c r="C117" s="4" t="n">
+        <v>45066.56535585648</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>50117</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>45066.56535585648</v>
+      </c>
+      <c r="C118" s="4" t="n">
+        <v>45066.56535585648</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>50118</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>45066.56535587963</v>
+      </c>
+      <c r="C119" s="4" t="n">
+        <v>45066.56535587963</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Utility Knife', 250), ('Measuring Tape', 400), ('Level', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>50119</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>45066.56535591435</v>
+      </c>
+      <c r="C120" s="4" t="n">
+        <v>45066.56535591435</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>[('Hammer', 300), ('Measuring Tape', 400), ('Utility Knife', 250), ('Toolbox', 150), ('Level', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>50120</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>45066.56535592592</v>
+      </c>
+      <c r="C121" s="4" t="n">
+        <v>45066.56535592592</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>50121</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>45066.5653559375</v>
+      </c>
+      <c r="C122" s="4" t="n">
+        <v>45066.5653559375</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>50122</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>45066.56535594907</v>
+      </c>
+      <c r="C123" s="4" t="n">
+        <v>45066.56535594907</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>50123</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>45066.56535596065</v>
+      </c>
+      <c r="C124" s="4" t="n">
+        <v>45066.56535596065</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>50124</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>45066.56535597222</v>
+      </c>
+      <c r="C125" s="4" t="n">
+        <v>45066.56535597222</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>50125</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>45066.5653559838</v>
+      </c>
+      <c r="C126" s="4" t="n">
+        <v>45066.5653559838</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>50126</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>45066.56535600695</v>
+      </c>
+      <c r="C127" s="4" t="n">
+        <v>45066.56535600695</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Level', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>50127</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>45066.56535601852</v>
+      </c>
+      <c r="C128" s="4" t="n">
+        <v>45066.56535601852</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>50128</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>45066.56535603009</v>
+      </c>
+      <c r="C129" s="4" t="n">
+        <v>45066.56535603009</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>50129</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>45066.56535604167</v>
+      </c>
+      <c r="C130" s="4" t="n">
+        <v>45066.56535604167</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>[('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>50130</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>45066.56535604167</v>
+      </c>
+      <c r="C131" s="4" t="n">
+        <v>45066.56535604167</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>50131</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>45066.56535607639</v>
+      </c>
+      <c r="C132" s="4" t="n">
+        <v>45066.56535607639</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Utility Knife', 250), ('Measuring Tape', 400), ('Level', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>50132</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>45066.56535608797</v>
+      </c>
+      <c r="C133" s="4" t="n">
+        <v>45066.56535608797</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>50133</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>45066.56535611111</v>
+      </c>
+      <c r="C134" s="4" t="n">
+        <v>45066.56535611111</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Utility Knife', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>50134</v>
+      </c>
+      <c r="B135" s="4" t="n">
+        <v>45066.56535614583</v>
+      </c>
+      <c r="C135" s="4" t="n">
+        <v>45066.56535614583</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[('Toolbox', 150), ('Measuring Tape', 400), ('Screw Assortment Kit', 600), ('Hammer', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>50135</v>
+      </c>
+      <c r="B136" s="4" t="n">
+        <v>45066.56535615741</v>
+      </c>
+      <c r="C136" s="4" t="n">
+        <v>45066.56535615741</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[('Wireless Headphones', 400), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>50136</v>
+      </c>
+      <c r="B137" s="4" t="n">
+        <v>45066.56535616898</v>
+      </c>
+      <c r="C137" s="4" t="n">
+        <v>45066.56535616898</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>50137</v>
+      </c>
+      <c r="B138" s="4" t="n">
+        <v>45066.56535616898</v>
+      </c>
+      <c r="C138" s="4" t="n">
+        <v>45066.56535616898</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>50138</v>
+      </c>
+      <c r="B139" s="4" t="n">
+        <v>45066.56535618055</v>
+      </c>
+      <c r="C139" s="4" t="n">
+        <v>45066.56535618055</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>50139</v>
+      </c>
+      <c r="B140" s="4" t="n">
+        <v>45066.56535619213</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>45066.56535619213</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[('Bed Sheets', 150), ('Bath Towels', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>50140</v>
+      </c>
+      <c r="B141" s="4" t="n">
+        <v>45066.5653562037</v>
+      </c>
+      <c r="C141" s="4" t="n">
+        <v>45066.5653562037</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>50141</v>
+      </c>
+      <c r="B142" s="4" t="n">
+        <v>45066.5653562037</v>
+      </c>
+      <c r="C142" s="4" t="n">
+        <v>45066.5653562037</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[('Floor Lamp', 50), ('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>50142</v>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>45066.56535621528</v>
+      </c>
+      <c r="C143" s="4" t="n">
+        <v>45066.56535621528</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>50143</v>
+      </c>
+      <c r="B144" s="4" t="n">
+        <v>45066.56535622685</v>
+      </c>
+      <c r="C144" s="4" t="n">
+        <v>45066.56535622685</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>50144</v>
+      </c>
+      <c r="B145" s="4" t="n">
+        <v>45066.56535622685</v>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>45066.56535622685</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>50145</v>
+      </c>
+      <c r="B146" s="4" t="n">
+        <v>45066.56535623843</v>
+      </c>
+      <c r="C146" s="4" t="n">
+        <v>45066.56535623843</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Supplier U</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>50146</v>
+      </c>
+      <c r="B147" s="4" t="n">
+        <v>45066.56535625</v>
+      </c>
+      <c r="C147" s="4" t="n">
+        <v>45066.56535625</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Level', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>50147</v>
+      </c>
+      <c r="B148" s="4" t="n">
+        <v>45066.56535628472</v>
+      </c>
+      <c r="C148" s="4" t="n">
+        <v>45066.56535628472</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Screwdriver Set', 250), ('Toolbox', 150), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>50148</v>
+      </c>
+      <c r="B149" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="C149" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>50149</v>
+      </c>
+      <c r="B150" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="C150" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>50150</v>
+      </c>
+      <c r="B151" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="C151" s="4" t="n">
+        <v>45066.56535630787</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>50151</v>
+      </c>
+      <c r="B152" s="4" t="n">
+        <v>45066.56761855364</v>
+      </c>
+      <c r="C152" s="4" t="n">
+        <v>45066.56761856522</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>50152</v>
+      </c>
+      <c r="B153" s="4" t="n">
+        <v>45066.56761856522</v>
+      </c>
+      <c r="C153" s="4" t="n">
+        <v>45066.56761856522</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Supplier W</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[('Blender', 80)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>50153</v>
+      </c>
+      <c r="B154" s="4" t="n">
+        <v>45066.56761857791</v>
+      </c>
+      <c r="C154" s="4" t="n">
+        <v>45066.56761857791</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>50154</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>45066.56761857791</v>
+      </c>
+      <c r="C155" s="4" t="n">
+        <v>45066.56761857791</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Supplier U</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[('Wall Clock', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>50155</v>
+      </c>
+      <c r="B156" s="4" t="n">
+        <v>45066.56761858955</v>
+      </c>
+      <c r="C156" s="4" t="n">
+        <v>45066.56761858955</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>50156</v>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>45066.5676186011</v>
+      </c>
+      <c r="C157" s="4" t="n">
+        <v>45066.5676186011</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Yoga Mat', 300), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>50157</v>
+      </c>
+      <c r="B158" s="4" t="n">
+        <v>45066.5676186011</v>
+      </c>
+      <c r="C158" s="4" t="n">
+        <v>45066.5676186011</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[('Soccer Ball', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>50158</v>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>45066.56761861267</v>
+      </c>
+      <c r="C159" s="4" t="n">
+        <v>45066.56761861267</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[('Bluetooth Speaker', 300), ('Wireless Headphones', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>50159</v>
+      </c>
+      <c r="B160" s="4" t="n">
+        <v>45066.56761864173</v>
+      </c>
+      <c r="C160" s="4" t="n">
+        <v>45066.56761864173</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Level', 250), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>50160</v>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>45066.5676186533</v>
+      </c>
+      <c r="C161" s="4" t="n">
+        <v>45066.5676186533</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>50161</v>
+      </c>
+      <c r="B162" s="4" t="n">
+        <v>45066.56761865964</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>45066.56761865964</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Supplier N</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[('Pillow', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>50162</v>
+      </c>
+      <c r="B163" s="4" t="n">
+        <v>45066.56761865964</v>
+      </c>
+      <c r="C163" s="4" t="n">
+        <v>45066.56761865964</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[('Bluetooth Speaker', 300), ('Wireless Headphones', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>50163</v>
+      </c>
+      <c r="B164" s="4" t="n">
+        <v>45066.56761869493</v>
+      </c>
+      <c r="C164" s="4" t="n">
+        <v>45066.56761869493</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Level', 250), ('Measuring Tape', 400), ('Utility Knife', 250), ('Screwdriver Set', 250)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>50164</v>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>45066.56761870654</v>
+      </c>
+      <c r="C165" s="4" t="n">
+        <v>45066.56761870654</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>50165</v>
+      </c>
+      <c r="B166" s="4" t="n">
+        <v>45066.56761870654</v>
+      </c>
+      <c r="C166" s="4" t="n">
+        <v>45066.56761870654</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>50166</v>
+      </c>
+      <c r="B167" s="4" t="n">
+        <v>45066.56761871809</v>
+      </c>
+      <c r="C167" s="4" t="n">
+        <v>45066.56761871809</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 200), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>50167</v>
+      </c>
+      <c r="B168" s="4" t="n">
+        <v>45066.56761876601</v>
+      </c>
+      <c r="C168" s="4" t="n">
+        <v>45066.56761876601</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Utility Knife', 250), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>50168</v>
+      </c>
+      <c r="B169" s="4" t="n">
+        <v>45066.5676188008</v>
+      </c>
+      <c r="C169" s="4" t="n">
+        <v>45066.5676188008</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[('Measuring Tape', 400), ('Utility Knife', 250), ('Screw Assortment Kit', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>50169</v>
+      </c>
+      <c r="B170" s="4" t="n">
+        <v>45066.56761881238</v>
+      </c>
+      <c r="C170" s="4" t="n">
+        <v>45066.56761881238</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>50170</v>
+      </c>
+      <c r="B171" s="4" t="n">
+        <v>45066.567618824</v>
+      </c>
+      <c r="C171" s="4" t="n">
+        <v>45066.567618824</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>50171</v>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>45066.56761884144</v>
+      </c>
+      <c r="C172" s="4" t="n">
+        <v>45066.56761884144</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Utility Knife', 250), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Sanding Block', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>50172</v>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>45066.56761885968</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>45066.56761885968</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>50173</v>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>45066.56761887058</v>
+      </c>
+      <c r="C174" s="4" t="n">
+        <v>45066.56761887058</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Supplier H</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[('Basketball', 200), ('Soccer Ball', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>50174</v>
+      </c>
+      <c r="B175" s="4" t="n">
+        <v>45066.56761887058</v>
+      </c>
+      <c r="C175" s="4" t="n">
+        <v>45066.56761887058</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Supplier P</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[('Coffee Maker', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>50175</v>
+      </c>
+      <c r="B176" s="4" t="n">
+        <v>45066.5676189053</v>
+      </c>
+      <c r="C176" s="4" t="n">
+        <v>45066.5676189053</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>50176</v>
+      </c>
+      <c r="B177" s="4" t="n">
+        <v>45066.5676189053</v>
+      </c>
+      <c r="C177" s="4" t="n">
+        <v>45066.5676189053</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>50177</v>
+      </c>
+      <c r="B178" s="4" t="n">
+        <v>45066.56761892277</v>
+      </c>
+      <c r="C178" s="4" t="n">
+        <v>45066.56761892277</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 200), ('Bluetooth Speaker', 300), ('Wireless Headphones', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>50178</v>
+      </c>
+      <c r="B179" s="4" t="n">
+        <v>45066.56761893446</v>
+      </c>
+      <c r="C179" s="4" t="n">
+        <v>45066.56761893446</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>50179</v>
+      </c>
+      <c r="B180" s="4" t="n">
+        <v>45066.56761894603</v>
+      </c>
+      <c r="C180" s="4" t="n">
+        <v>45066.56761894603</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Supplier S</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[('Mixing Bowl Set', 250), ('Cutting Board', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>50180</v>
+      </c>
+      <c r="B181" s="4" t="n">
+        <v>45066.56761894603</v>
+      </c>
+      <c r="C181" s="4" t="n">
+        <v>45066.56761894603</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Supplier R</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>[('Vacuum Cleaner', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>50181</v>
+      </c>
+      <c r="B182" s="4" t="n">
+        <v>45066.5676189576</v>
+      </c>
+      <c r="C182" s="4" t="n">
+        <v>45066.5676189576</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>50182</v>
+      </c>
+      <c r="B183" s="4" t="n">
+        <v>45066.5676189576</v>
+      </c>
+      <c r="C183" s="4" t="n">
+        <v>45066.5676189576</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 200), ('Bluetooth Speaker', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>50183</v>
+      </c>
+      <c r="B184" s="4" t="n">
+        <v>45066.56761897506</v>
+      </c>
+      <c r="C184" s="4" t="n">
+        <v>45066.56761897506</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Supplier N</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[('Pillow', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>50184</v>
+      </c>
+      <c r="B185" s="4" t="n">
+        <v>45066.56761898676</v>
+      </c>
+      <c r="C185" s="4" t="n">
+        <v>45066.56761898676</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[('Moisturizing Cream', 300), ('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>50185</v>
+      </c>
+      <c r="B186" s="4" t="n">
+        <v>45066.56761898676</v>
+      </c>
+      <c r="C186" s="4" t="n">
+        <v>45066.56761898676</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[('Floor Lamp', 50), ('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>50186</v>
+      </c>
+      <c r="B187" s="4" t="n">
+        <v>45066.56761899832</v>
+      </c>
+      <c r="C187" s="4" t="n">
+        <v>45066.56761899832</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[('Wireless Mouse', 200), ('Wireless Headphones', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>50187</v>
+      </c>
+      <c r="B188" s="4" t="n">
+        <v>45066.56761902147</v>
+      </c>
+      <c r="C188" s="4" t="n">
+        <v>45066.56761902147</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Hammer', 300), ('Measuring Tape', 400), ('Screwdriver Set', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>50188</v>
+      </c>
+      <c r="B189" s="4" t="n">
+        <v>45066.56761903304</v>
+      </c>
+      <c r="C189" s="4" t="n">
+        <v>45066.56761903304</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[('LED Bulb', 800)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>50189</v>
+      </c>
+      <c r="B190" s="4" t="n">
+        <v>45066.56761904462</v>
+      </c>
+      <c r="C190" s="4" t="n">
+        <v>45066.56761904462</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>50190</v>
+      </c>
+      <c r="B191" s="4" t="n">
+        <v>45066.56761905619</v>
+      </c>
+      <c r="C191" s="4" t="n">
+        <v>45066.56761905619</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[('AA Batteries', 900), ('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>50191</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>45066.56761907934</v>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>45066.56761907934</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[('Screw Assortment Kit', 600), ('Level', 250), ('Measuring Tape', 400), ('Utility Knife', 250), ('Screwdriver Set', 250), ('Toolbox', 150)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>50192</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>45066.56761909091</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>45066.56761909091</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[('Facial Cleanser', 400)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>50193</v>
+      </c>
+      <c r="B194" s="4" t="n">
+        <v>45066.5676191094</v>
+      </c>
+      <c r="C194" s="4" t="n">
+        <v>45066.5676191094</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[('Mascara', 600), ('Lipstick', 800), ('Eyeshadow Palette', 500)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>50194</v>
+      </c>
+      <c r="B195" s="4" t="n">
+        <v>45066.5676191094</v>
+      </c>
+      <c r="C195" s="4" t="n">
+        <v>45066.5676191094</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[('AAA Batteries', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>50195</v>
+      </c>
+      <c r="B196" s="4" t="n">
+        <v>45066.56761912103</v>
+      </c>
+      <c r="C196" s="4" t="n">
+        <v>45066.56761912103</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[('Essential Oil Set', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>50196</v>
+      </c>
+      <c r="B197" s="4" t="n">
+        <v>45066.56761913264</v>
+      </c>
+      <c r="C197" s="4" t="n">
+        <v>45066.56761913264</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[('Resistance Bands', 500), ('Meditation Cushion', 100)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>50197</v>
+      </c>
+      <c r="B198" s="4" t="n">
+        <v>45066.56761914423</v>
+      </c>
+      <c r="C198" s="4" t="n">
+        <v>45066.56761914423</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[('Aromatherapy Diffuser', 600), ('Essential Oil Set', 300)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>50198</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>45066.56761915617</v>
+      </c>
+      <c r="C199" s="4" t="n">
+        <v>45066.56761915617</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[('Bed Sheets', 150), ('Bath Towels', 200)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>50199</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>45066.56761916278</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>45066.56761916278</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[('USB Flash Drive', 700)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>50200</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>45066.56761916278</v>
+      </c>
+      <c r="C201" s="4" t="n">
+        <v>45066.56761916278</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[('Coffee Mug', 800)]</t>
         </is>
       </c>
     </row>

--- a/warehouse_manager/Database/Arrivals.xlsx
+++ b/warehouse_manager/Database/Arrivals.xlsx
@@ -3,29 +3,35 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5724" yWindow="2688" windowWidth="17064" windowHeight="8112" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arrivals" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -39,12 +45,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -57,14 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -408,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,27 +441,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Arrival Time</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Dispatch Time</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Supplier</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Items</t>
         </is>
@@ -445,862 +474,1067 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50001</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>45066.63211467703</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>45066.63211467703</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
+        <v>50017</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>45066.98435069445</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45066.98540393518</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('Bluetooth Speaker', 800), ('Wireless Headphones', 1000)]</t>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}, {'Name': 'Moisturizing Cream', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50002</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>45066.6321146949</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>45066.6321146949</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Supplier L</t>
-        </is>
+        <v>50029</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>45066.9843855787</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>45066.9843855787</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('Moisturizing Cream', 800), ('Facial Cleanser', 1000)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>50003</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>45066.63211470709</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>45066.63211470709</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50033</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>45066.98445510417</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>45066.98547362268</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('Mascara', 1600), ('Eyeshadow Palette', 1300)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Utility Knife', 'Quantity': 600}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50004</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>45066.63211470709</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>45066.63211470709</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
+        <v>50002</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>45066.98447783565</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>45066.98547320602</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 2100)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50005</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>45066.63211471869</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>45066.63211471869</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Supplier U</t>
-        </is>
+        <v>50035</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>45066.98448987269</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>45066.98484866898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('Wall Clock', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Sanding Block', 'Quantity': 300}]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50006</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>45066.63211473124</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>45066.63211473124</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
+        <v>50024</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>45066.98450127315</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>45066.9848369213</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('Wireless Headphones', 1000)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50007</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>45066.63211473124</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>45066.63211473124</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Supplier Q</t>
-        </is>
+        <v>50026</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>45066.98454759259</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>45066.98538092593</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('Steam Iron', 300)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50008</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>45066.63211474287</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>45066.63211474287</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Supplier A</t>
-        </is>
+        <v>50037</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>45066.9845477662</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>45066.98461721065</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('AA Batteries', 2300), ('AAA Batteries', 1800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50009</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>45066.63211475466</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>45066.63211475466</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50010</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>45066.98455896991</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>45066.98497563657</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Eyeshadow Palette', 1300)]</t>
+          <t>Supplier S</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Mixing Bowl Set', 'Quantity': 600}, {'Name': 'Cutting Board', 'Quantity': 300}, {'Name': 'Knife Set', 'Quantity': 200}]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50010</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>45066.63211476603</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>45066.63211476603</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Supplier S</t>
-        </is>
+        <v>50003</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>45066.98463989583</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>45066.98551952546</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('Knife Set', 200), ('Mixing Bowl Set', 600)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1300}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50011</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>45066.63211477764</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>45066.63211477764</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
+        <v>50044</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>45066.98466358797</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>45066.98498766204</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 2100)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 2300}]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50012</v>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>45066.63211480723</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>45066.63211480723</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50008</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>45066.98468626157</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>45066.9847209838</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1600), ('Measuring Tape', 1000), ('Screwdriver Set', 600), ('Level', 600), ('Hammer', 800), ('Toolbox', 400)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50013</v>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>45066.63211481924</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>45066.63211481924</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Supplier E</t>
-        </is>
+        <v>50021</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>45066.98469798611</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>45066.98498733796</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('LED Bulb', 2100)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>50014</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>45066.63211481924</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>45066.63211481924</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Supplier I</t>
-        </is>
+        <v>50023</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>45066.98473271991</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>45066.9858091088</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('Tennis Racket', 300)]</t>
+          <t>Supplier A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[{'Name': 'AA Batteries', 'Quantity': 2300}, {'Name': 'AAA Batteries', 'Quantity': 1800}]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>50015</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>45066.63211484317</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>45066.63211484317</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50004</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>45066.98474407407</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>45066.98539222222</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 600), ('Screw Assortment Kit', 1600), ('Sanding Block', 300), ('Level', 600), ('Toolbox', 400)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}, {'Name': 'Essential Oil Set', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>50016</v>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>45066.63211486721</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>45066.63211486721</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
+        <v>50015</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>45066.98475576389</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>45066.98517243056</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 1300), ('Yoga Mat', 800), ('Meditation Cushion', 300)]</t>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>50017</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>45066.63211489094</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>45066.63211489094</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50022</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>45066.98475585648</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>45066.9857280787</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1600), ('Sanding Block', 300), ('Screwdriver Set', 600), ('Hammer', 800), ('Toolbox', 400)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50018</v>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>45066.63211489094</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>45066.63211489094</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50020</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>45066.98476739584</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>45066.9848715625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Mascara', 1600)]</t>
+          <t>Supplier T</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Cookware Set', 'Quantity': 100}]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>50019</v>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>45066.6321149085</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>45066.6321149085</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
+        <v>50012</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>45066.98480203703</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>45066.9849062037</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 2100)]</t>
+          <t>Supplier E</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[{'Name': 'LED Bulb', 'Quantity': 2100}]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50020</v>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>45066.63211492816</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>45066.63211492816</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50049</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>45066.98483728009</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>45066.98492987268</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 600), ('Screw Assortment Kit', 1600), ('Sanding Block', 300), ('Screwdriver Set', 600), ('Level', 600)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}, {'Name': 'Essential Oil Set', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>50021</v>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>45066.63211493926</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>45066.63211493926</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Supplier I</t>
-        </is>
+        <v>50005</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>45066.98484826389</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>45066.98543854167</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('Tennis Racket', 300)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>50022</v>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>45066.63211493926</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>45066.63211493926</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
+        <v>50001</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>45066.98485975694</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>45066.98587827546</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 2100)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>50023</v>
-      </c>
-      <c r="B24" s="4" t="n">
-        <v>45066.6321149502</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>45066.6321149502</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Supplier U</t>
-        </is>
+        <v>50030</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>45066.98487171296</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>45066.98593652778</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('Wall Clock', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Toolbox', 'Quantity': 400}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>50024</v>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>45066.63211496226</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>45066.63211496226</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
+        <v>50028</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>45066.98488325231</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>45066.98497584491</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('Bed Sheets', 400), ('Bath Towels', 500)]</t>
+          <t>Supplier Z</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Power Drill', 'Quantity': 400}, {'Name': 'Paint Brush Set', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>50025</v>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>45066.63211496226</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>45066.63211496226</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Supplier O</t>
-        </is>
+        <v>50041</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>45066.98494134259</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>45066.98586726851</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('Bed Sheets', 400), ('Bath Towels', 500)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50026</v>
-      </c>
-      <c r="B27" s="4" t="n">
-        <v>45066.63211497382</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>45066.63211497382</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
+        <v>50007</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>45066.98506819444</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>45066.98521865741</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('USB Flash Drive', 1800)]</t>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>50027</v>
-      </c>
-      <c r="B28" s="4" t="n">
-        <v>45066.63211498545</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>45066.63211498545</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
+        <v>50050</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>45066.98506877315</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>45066.98615673611</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('Resistance Bands', 1300), ('Yoga Mat', 800), ('Meditation Cushion', 300)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>50028</v>
-      </c>
-      <c r="B29" s="4" t="n">
-        <v>45066.63211499721</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>45066.63211499721</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50014</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>45066.98511456019</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>45066.98573956019</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Eyeshadow Palette', 1300)]</t>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2100}]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>50029</v>
-      </c>
-      <c r="B30" s="4" t="n">
-        <v>45066.63211500808</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>45066.63211500808</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50011</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>45066.98512609953</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>45066.98591313657</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('Mascara', 1600)]</t>
+          <t>Supplier U</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Wall Clock', 'Quantity': 600}]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>50030</v>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>45066.63211502018</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>45066.63211502018</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Supplier K</t>
-        </is>
+        <v>50048</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>45066.98512662037</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>45066.98582106482</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('Essential Oil Set', 800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>50031</v>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>45066.63211502656</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>45066.63211502656</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Supplier Z</t>
-        </is>
+        <v>50043</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>45066.98513811343</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>45066.98586728009</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('Paint Roller Kit', 400), ('Paint Brush Set', 500), ('Power Drill', 400)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[{'Name': 'HDMI Cable', 'Quantity': 500}, {'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>50032</v>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>45066.63211503817</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>45066.63211503817</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50013</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>45066.98516084491</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>45066.98564695602</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Mascara', 1600)]</t>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}, {'Name': 'Wireless Mouse', 'Quantity': 500}]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50033</v>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>45066.63211503817</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>45066.63211503817</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Supplier V</t>
-        </is>
+        <v>50018</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>45066.9851724537</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>45066.98606365741</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('Coffee Mug', 2100)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[{'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>50034</v>
-      </c>
-      <c r="B35" s="4" t="n">
-        <v>45066.63211505036</v>
-      </c>
-      <c r="C35" s="4" t="n">
-        <v>45066.63211505036</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Supplier K</t>
-        </is>
+        <v>50027</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>45066.98517259259</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>45066.985705</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('Aromatherapy Diffuser', 1600)]</t>
+          <t>Supplier V</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Coffee Mug', 'Quantity': 2100}]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>50035</v>
-      </c>
-      <c r="B36" s="4" t="n">
-        <v>45066.63211505036</v>
-      </c>
-      <c r="C36" s="4" t="n">
-        <v>45066.63211505036</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
+        <v>50031</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>45066.98519581019</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>45066.98631849537</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('USB Flash Drive', 1800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>50036</v>
-      </c>
-      <c r="B37" s="4" t="n">
-        <v>45066.63211506803</v>
-      </c>
-      <c r="C37" s="4" t="n">
-        <v>45066.63211506803</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
+        <v>50006</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>45066.98527651621</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>45066.98562373842</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('Wireless Mouse', 500), ('Wireless Headphones', 1000)]</t>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bath Towels', 'Quantity': 500}, {'Name': 'Bed Sheets', 'Quantity': 400}]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>50037</v>
-      </c>
-      <c r="B38" s="4" t="n">
-        <v>45066.6321151072</v>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>45066.6321151072</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50038</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>45066.98527694445</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>45066.98549685185</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('Screw Assortment Kit', 1600), ('Measuring Tape', 1000), ('Level', 600), ('Hammer', 800), ('Toolbox', 400)]</t>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1300}, {'Name': 'Yoga Mat', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>50038</v>
-      </c>
-      <c r="B39" s="4" t="n">
-        <v>45066.63211511876</v>
-      </c>
-      <c r="C39" s="4" t="n">
-        <v>45066.63211511876</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Supplier J</t>
-        </is>
+        <v>50016</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>45066.98528818287</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>45066.98579744213</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('Yoga Mat', 800), ('Resistance Bands', 1300), ('Meditation Cushion', 300)]</t>
+          <t>Supplier L</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Facial Cleanser', 'Quantity': 1000}, {'Name': 'Moisturizing Cream', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>50039</v>
-      </c>
-      <c r="B40" s="4" t="n">
-        <v>45066.63211513039</v>
-      </c>
-      <c r="C40" s="4" t="n">
-        <v>45066.63211513039</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
+        <v>50025</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>45066.98535776621</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>45066.98587859954</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('Wireless Mouse', 500), ('Bluetooth Speaker', 800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}, {'Name': 'Eyeshadow Palette', 'Quantity': 1300}]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50040</v>
-      </c>
-      <c r="B41" s="4" t="n">
-        <v>45066.63211514192</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>45066.63211514192</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
+        <v>50046</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>45066.98539280093</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>45066.98616826389</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('HDMI Cable', 500), ('USB Flash Drive', 1800)]</t>
+          <t>Supplier J</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Resistance Bands', 'Quantity': 1300}, {'Name': 'Yoga Mat', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>50041</v>
-      </c>
-      <c r="B42" s="4" t="n">
-        <v>45066.63211515395</v>
-      </c>
-      <c r="C42" s="4" t="n">
-        <v>45066.63211515395</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Supplier B</t>
-        </is>
+        <v>50009</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>45066.98541543981</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>45066.98575108797</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('HDMI Cable', 500), ('USB Flash Drive', 1800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Eyeshadow Palette', 'Quantity': 1300}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
@@ -1308,188 +1542,233 @@
       <c r="A43" t="n">
         <v>50042</v>
       </c>
-      <c r="B43" s="4" t="n">
-        <v>45066.63211516028</v>
-      </c>
-      <c r="C43" s="4" t="n">
-        <v>45066.63211516028</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>45066.98541589121</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>45066.98636496528</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Mascara', 1600), ('Eyeshadow Palette', 1300)]</t>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}, {'Name': 'Wireless Mouse', 'Quantity': 500}, {'Name': 'Wireless Headphones', 'Quantity': 1000}]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>50043</v>
-      </c>
-      <c r="B44" s="4" t="n">
-        <v>45066.63211517777</v>
-      </c>
-      <c r="C44" s="4" t="n">
-        <v>45066.63211517777</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Supplier W</t>
-        </is>
+        <v>50047</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>45066.98543910879</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>45066.98631873843</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('Blender', 200)]</t>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 400}]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50044</v>
-      </c>
-      <c r="B45" s="4" t="n">
-        <v>45066.63211520343</v>
-      </c>
-      <c r="C45" s="4" t="n">
-        <v>45066.63211520343</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50039</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>45066.98545055556</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>45066.98628388889</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 600), ('Measuring Tape', 1000), ('Screwdriver Set', 600), ('Level', 600), ('Hammer', 800)]</t>
+          <t>Supplier B</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[{'Name': 'HDMI Cable', 'Quantity': 500}, {'Name': 'USB Flash Drive', 'Quantity': 1800}]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>50045</v>
-      </c>
-      <c r="B46" s="4" t="n">
-        <v>45066.63211522603</v>
-      </c>
-      <c r="C46" s="4" t="n">
-        <v>45066.63211522603</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50036</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>45066.98546210648</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>45066.98579775463</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 600), ('Screw Assortment Kit', 1600), ('Sanding Block', 300), ('Level', 600), ('Hammer', 800), ('Toolbox', 400)]</t>
+          <t>Supplier K</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Aromatherapy Diffuser', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>50046</v>
-      </c>
-      <c r="B47" s="4" t="n">
-        <v>45066.63211526878</v>
-      </c>
-      <c r="C47" s="4" t="n">
-        <v>45066.63211526878</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Supplier Y</t>
-        </is>
+        <v>50040</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>45066.98546215278</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>45066.98589039352</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('Utility Knife', 600), ('Screw Assortment Kit', 1600), ('Measuring Tape', 1000), ('Level', 600), ('Hammer', 800)]</t>
+          <t>Supplier M</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Lipstick', 'Quantity': 2100}, {'Name': 'Mascara', 'Quantity': 1600}]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>50047</v>
-      </c>
-      <c r="B48" s="4" t="n">
-        <v>45066.63211529201</v>
-      </c>
-      <c r="C48" s="4" t="n">
-        <v>45066.63211529201</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Supplier C</t>
-        </is>
+        <v>50019</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>45066.98547341435</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>45066.98620258102</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('Bluetooth Speaker', 800), ('Wireless Headphones', 1000)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Utility Knife', 'Quantity': 600}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>50048</v>
-      </c>
-      <c r="B49" s="4" t="n">
-        <v>45066.63211530366</v>
-      </c>
-      <c r="C49" s="4" t="n">
-        <v>45066.63211530366</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Supplier M</t>
-        </is>
+        <v>50034</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>45066.98547363426</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>45066.98553150463</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[('Lipstick', 2100), ('Eyeshadow Palette', 1300)]</t>
+          <t>Supplier C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bluetooth Speaker', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>50049</v>
-      </c>
-      <c r="B50" s="4" t="n">
-        <v>45066.63211532681</v>
-      </c>
-      <c r="C50" s="4" t="n">
-        <v>45066.63211532681</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Supplier S</t>
-        </is>
+        <v>50045</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>45066.98548537037</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>45066.9857862963</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('Cutting Board', 300), ('Mixing Bowl Set', 600)]</t>
+          <t>Supplier Y</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Screw Assortment Kit', 'Quantity': 1600}, {'Name': 'Level', 'Quantity': 600}, {'Name': 'Measuring Tape', 'Quantity': 1000}, {'Name': 'Screwdriver Set', 'Quantity': 600}, {'Name': 'Hammer', 'Quantity': 800}]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50050</v>
-      </c>
-      <c r="B51" s="4" t="n">
-        <v>45066.63211533837</v>
-      </c>
-      <c r="C51" s="4" t="n">
-        <v>45066.63211533837</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Supplier S</t>
-        </is>
+        <v>50032</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dispatched</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>45066.98550831019</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>45066.98614488426</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[('Mixing Bowl Set', 600)]</t>
+          <t>Supplier O</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[{'Name': 'Bed Sheets', 'Quantity': 400}]</t>
         </is>
       </c>
     </row>
